--- a/高频集锦/MCP PSG Spreadsheets v2.0.xlsx
+++ b/高频集锦/MCP PSG Spreadsheets v2.0.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\- NHD's Documents -\Desktop\Game Product\MCP Guides\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunlin/Documents/GitHub/Road_to_Tech/高频集锦/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B6F45C-5B68-4099-A4AA-ECF486A345EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8109938-F8F8-F049-A5AA-47EA403A43F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{59D84BB4-DA29-4857-8268-54FB18BF39DA}"/>
+    <workbookView xWindow="51200" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{59D84BB4-DA29-4857-8268-54FB18BF39DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Spreadsheet 1 - Location" sheetId="1" r:id="rId1"/>
-    <sheet name="Spreadsheet 2 - Food Chain" sheetId="2" r:id="rId2"/>
+    <sheet name="Real" sheetId="4" r:id="rId2"/>
+    <sheet name="Spreadsheet 2 - Food Chain" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,9 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="76">
   <si>
     <t>Species Name</t>
   </si>
@@ -46,12 +46,6 @@
     <t>Cal Provided</t>
   </si>
   <si>
-    <t>0-20</t>
-  </si>
-  <si>
-    <t>30-40</t>
-  </si>
-  <si>
     <t>Class</t>
   </si>
   <si>
@@ -61,91 +55,22 @@
     <t>Species Specs</t>
   </si>
   <si>
-    <t>40-50</t>
-  </si>
-  <si>
     <t>Apex</t>
   </si>
   <si>
-    <t>Species 1</t>
-  </si>
-  <si>
-    <t>Species 2</t>
-  </si>
-  <si>
-    <t>Species 3</t>
-  </si>
-  <si>
-    <t>Species 4</t>
-  </si>
-  <si>
-    <t>Species 5</t>
-  </si>
-  <si>
-    <t>Species 6</t>
-  </si>
-  <si>
     <t>Predator</t>
   </si>
   <si>
     <t>Herbivore</t>
   </si>
   <si>
-    <t>20-40</t>
-  </si>
-  <si>
-    <t>Species 7</t>
-  </si>
-  <si>
-    <t>Species 8</t>
-  </si>
-  <si>
-    <t>Species 9</t>
-  </si>
-  <si>
-    <t>Species 10</t>
-  </si>
-  <si>
     <t>MConsultingPrep PSG Simulation - Spreadsheet 1 - Choosing Location &amp; Filtering Species</t>
   </si>
   <si>
-    <t>40-60</t>
-  </si>
-  <si>
-    <t>50-60</t>
-  </si>
-  <si>
     <t>25-30</t>
   </si>
   <si>
     <t>15-20</t>
-  </si>
-  <si>
-    <t>Species 11</t>
-  </si>
-  <si>
-    <t>Species 12</t>
-  </si>
-  <si>
-    <t>Species 13</t>
-  </si>
-  <si>
-    <t>Species 14</t>
-  </si>
-  <si>
-    <t>Species 15</t>
-  </si>
-  <si>
-    <t>Species 16</t>
-  </si>
-  <si>
-    <t>Species 17</t>
-  </si>
-  <si>
-    <t>Species 18</t>
-  </si>
-  <si>
-    <t>Species 19</t>
   </si>
   <si>
     <t>Species 20</t>
@@ -355,6 +280,84 @@
   </si>
   <si>
     <t>Note: It is advisable to list the correct class - this would be useful in building the food chain</t>
+  </si>
+  <si>
+    <t>Blue Cohosh</t>
+  </si>
+  <si>
+    <t>Bulrush</t>
+  </si>
+  <si>
+    <t>Candy Cap</t>
+  </si>
+  <si>
+    <t>Early Morel</t>
+  </si>
+  <si>
+    <t>Miner's Lettuce</t>
+  </si>
+  <si>
+    <t>Moutain Wood Fern</t>
+  </si>
+  <si>
+    <t>Velvet Red Coleus</t>
+  </si>
+  <si>
+    <t>0-6.9</t>
+  </si>
+  <si>
+    <t>1251-2200</t>
+  </si>
+  <si>
+    <t>481-1250</t>
+  </si>
+  <si>
+    <t>7-12.5</t>
+  </si>
+  <si>
+    <t>150-480</t>
+  </si>
+  <si>
+    <t>12.6-15</t>
+  </si>
+  <si>
+    <t>White Shaggy Parasol</t>
+  </si>
+  <si>
+    <t>Wild Lilac</t>
+  </si>
+  <si>
+    <t>Black Bear</t>
+  </si>
+  <si>
+    <t>Olympic Marmot</t>
+  </si>
+  <si>
+    <t>Burrowing Owl</t>
+  </si>
+  <si>
+    <t>Lynx</t>
+  </si>
+  <si>
+    <t>Coyote</t>
+  </si>
+  <si>
+    <t>Tree Swallow</t>
+  </si>
+  <si>
+    <t>Black Tailed Jckrabbit</t>
+  </si>
+  <si>
+    <t>Bolson Tortoise</t>
+  </si>
+  <si>
+    <t>Notrhern</t>
+  </si>
+  <si>
+    <t>Montane</t>
+  </si>
+  <si>
+    <t>Black Tailed Jackrabbit</t>
   </si>
 </sst>
 </file>
@@ -418,7 +421,7 @@
       <name val="Work Sans"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -437,8 +440,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -526,11 +535,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -602,6 +635,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,7 +664,27 @@
           <bgColor rgb="FFF0F6FB"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Work Sans"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF0F6FB"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -684,86 +743,7 @@
           <bgColor rgb="FFF0F6FB"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Work Sans"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF0F6FB"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Work Sans"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF0F6FB"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Work Sans"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF0F6FB"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Work Sans"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF0F6FB"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -917,6 +897,65 @@
           <bgColor rgb="FFF0F6FB"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Work Sans"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF0F6FB"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Work Sans"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF0F6FB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Work Sans"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF0F6FB"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -973,6 +1012,571 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D06B062B-856E-4549-87E6-FD370A62A635}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4587875" y="2800350"/>
+          <a:ext cx="1" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="2691EA"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{715ABFC9-25B3-B242-BCF2-944F7DF1FF2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4797425" y="2819400"/>
+          <a:ext cx="2886075" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="2691EA"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73E5030A-B892-9C4F-A84B-DE4E4347E348}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4845050" y="4203700"/>
+          <a:ext cx="3511550" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="2691EA"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CA05731-E5AD-734A-8557-BC889B7453C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4568825" y="4222750"/>
+          <a:ext cx="1" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="2691EA"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE594128-4C3E-8848-B3EB-9CBFFF81497A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8604250" y="4203700"/>
+          <a:ext cx="1" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="2691EA"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4DF2020-A944-CF45-B7F2-0379B8311581}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4787900" y="4222750"/>
+          <a:ext cx="3502025" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="2691EA"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5CA9663-6185-BE4F-9E9F-95295B964016}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4454525" y="5616575"/>
+          <a:ext cx="1" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="2691EA"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58E837DA-05E8-D54A-A900-1B2740B95E92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8356600" y="5635625"/>
+          <a:ext cx="3467100" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="2691EA"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DD8BA8F-8F91-1F46-B2D1-9189DA081491}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4664075" y="5635625"/>
+          <a:ext cx="3409950" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="2691EA"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56A50239-A2C9-A146-8B8C-8E93D21C9222}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4616450" y="5645150"/>
+          <a:ext cx="3521075" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="2691EA"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
         <xdr:cNvPr id="46" name="Straight Arrow Connector 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
@@ -1524,28 +2128,31 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2F814A98-78CF-4FA4-9BF5-C67DBDC2F7B4}" name="Table2" displayName="Table2" ref="A10:E11" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{1426D6E0-E076-4548-9B11-D56D87262B71}" name="Terrain Specs" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{E93448C7-AB0B-4FDF-BA1D-D7817FBE1A7B}" name="Depth/Elev." dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{ED54E9D7-1135-48EC-8B96-BC613E4FC803}" name="Temperature" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{3A262F2B-3360-4A30-877E-7AD61F1E1C88}" name="Spec 3" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{2759867F-C9E9-418F-B8B1-03318F3E91E4}" name="Spec 4" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{1426D6E0-E076-4548-9B11-D56D87262B71}" name="Terrain Specs" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{E93448C7-AB0B-4FDF-BA1D-D7817FBE1A7B}" name="Depth/Elev." dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{ED54E9D7-1135-48EC-8B96-BC613E4FC803}" name="Temperature" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{3A262F2B-3360-4A30-877E-7AD61F1E1C88}" name="Spec 3" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{2759867F-C9E9-418F-B8B1-03318F3E91E4}" name="Spec 4" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BC915E1F-0E3C-4B68-8834-230C9C5B7A7C}" name="Table6" displayName="Table6" ref="A14:H34" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A14:H34" xr:uid="{CE887F62-8394-4AC0-932D-BA646F9E6A6A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BC915E1F-0E3C-4B68-8834-230C9C5B7A7C}" name="Table6" displayName="Table6" ref="A14:H33" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A14:H33" xr:uid="{CE887F62-8394-4AC0-932D-BA646F9E6A6A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A15:H33">
+    <sortCondition descending="1" ref="B14:B33"/>
+  </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{91D4C917-D591-4BBD-A7FC-F26F0A6697A6}" name="Species Name" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{206FD45D-DB8D-4B32-A58E-A47A0F39A997}" name="Depth/Elev." dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{2CF7EFA0-687C-46DF-91DC-6343FF7B23AD}" name="Temperature" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{FE248029-CB96-4D62-9EAB-4EEA092D170E}" name="Spec 3" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{6408C6E5-BCAF-4EA1-B2FB-AA87472066F3}" name="Spec 4" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{BD6AED1C-4F62-4004-AD3C-4BC76012AD41}" name="Cal Provided" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{D67FFE78-1EAE-41DA-9E35-A5DD1B10E084}" name="Cal Needed" dataDxfId="0"/>
-    <tableColumn id="11" xr3:uid="{5A2C480A-534E-4255-A70E-8799DF5FC2F2}" name="Class" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{91D4C917-D591-4BBD-A7FC-F26F0A6697A6}" name="Species Name" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{206FD45D-DB8D-4B32-A58E-A47A0F39A997}" name="Depth/Elev." dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{2CF7EFA0-687C-46DF-91DC-6343FF7B23AD}" name="Temperature" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{FE248029-CB96-4D62-9EAB-4EEA092D170E}" name="Spec 3" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{6408C6E5-BCAF-4EA1-B2FB-AA87472066F3}" name="Spec 4" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{BD6AED1C-4F62-4004-AD3C-4BC76012AD41}" name="Cal Provided" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{D67FFE78-1EAE-41DA-9E35-A5DD1B10E084}" name="Cal Needed" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{5A2C480A-534E-4255-A70E-8799DF5FC2F2}" name="Class" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1848,100 +2455,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FBC683D-827F-41DA-9C41-7C06E94C5C3A}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" style="1" customWidth="1"/>
-    <col min="2" max="5" width="17.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="28" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="9" customWidth="1"/>
-    <col min="8" max="9" width="16.42578125" style="1" customWidth="1"/>
-    <col min="10" max="11" width="17.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5" style="1" customWidth="1"/>
+    <col min="2" max="5" width="17.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="28" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="9" customWidth="1"/>
+    <col min="8" max="9" width="16.5" style="1" customWidth="1"/>
+    <col min="10" max="11" width="17.1640625" style="1" customWidth="1"/>
     <col min="12" max="14" width="16" style="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5" style="1" customWidth="1"/>
     <col min="16" max="16" width="14" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="17" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F1" s="9"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
-      <c r="B11" s="25">
-        <v>15</v>
-      </c>
-      <c r="C11" s="25">
-        <v>35</v>
+      <c r="B11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="D11" s="25">
         <v>27</v>
@@ -1951,30 +2558,30 @@
       </c>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="F14" s="26" t="s">
         <v>2</v>
@@ -1983,533 +2590,495 @@
         <v>1</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="E15" s="4" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F15" s="27">
-        <v>2000</v>
+        <v>5600</v>
       </c>
       <c r="G15" s="27">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="F16" s="27">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="G16" s="27">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F17" s="27">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="G17" s="27">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F18" s="27">
-        <v>2000</v>
+        <v>5500</v>
       </c>
       <c r="G18" s="27">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F19" s="27">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="G19" s="27">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F20" s="27">
-        <v>2000</v>
+        <v>4200</v>
       </c>
       <c r="G20" s="27">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F21" s="27">
-        <v>2000</v>
+        <v>5950</v>
       </c>
       <c r="G21" s="27">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F22" s="27">
-        <v>2000</v>
+        <v>4800</v>
       </c>
       <c r="G22" s="27">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F23" s="27">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="G23" s="27">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F24" s="27">
-        <v>2000</v>
+        <v>2450</v>
       </c>
       <c r="G24" s="27">
-        <v>2000</v>
+        <v>3550</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A25" s="4" t="s">
-        <v>28</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A25" s="32" t="s">
+        <v>67</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F25" s="27">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G25" s="27">
         <v>2000</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A26" s="4" t="s">
-        <v>29</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="14" x14ac:dyDescent="0.2">
+      <c r="A26" s="32" t="s">
+        <v>68</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F26" s="27">
-        <v>2000</v>
+        <v>1850</v>
       </c>
       <c r="G26" s="27">
-        <v>2000</v>
+        <v>2450</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F27" s="27">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="G27" s="27">
-        <v>2000</v>
+        <v>5750</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" s="27">
-        <v>2000</v>
-      </c>
-      <c r="G28" s="27">
-        <v>2000</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
       <c r="H28" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F29" s="27">
-        <v>2000</v>
+        <v>3200</v>
       </c>
       <c r="G29" s="27">
-        <v>2000</v>
+        <v>4950</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F30" s="27">
-        <v>2000</v>
+        <v>3200</v>
       </c>
       <c r="G30" s="27">
-        <v>2000</v>
+        <v>4650</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31" s="27">
-        <v>2000</v>
-      </c>
-      <c r="G31" s="27">
-        <v>2000</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
       <c r="H31" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F32" s="27">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G32" s="27">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="14" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F33" s="27">
-        <v>2000</v>
-      </c>
-      <c r="G33" s="27">
-        <v>2000</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
       <c r="H33" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A34" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F34" s="27">
-        <v>2000</v>
-      </c>
-      <c r="G34" s="27">
-        <v>2000</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15:H34" xr:uid="{2B441A3F-A356-46D1-B39C-6BFD094E2EFE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15:H33" xr:uid="{2B441A3F-A356-46D1-B39C-6BFD094E2EFE}">
       <formula1>"Apex, Predator, Herbivore, Producer"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2523,58 +3092,58 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FED1B1A-B46C-4314-91FC-70D8CF9D6CA4}">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1733BDB3-4A52-A949-8E54-B1D79A93186A}">
+  <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="14" width="13.28515625" style="9" customWidth="1"/>
-    <col min="15" max="18" width="14.42578125" style="9" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="14" width="13.33203125" style="9" customWidth="1"/>
+    <col min="15" max="18" width="14.5" style="9" customWidth="1"/>
+    <col min="19" max="16384" width="9.1640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -2593,7 +3162,7 @@
       <c r="P10" s="14"/>
       <c r="Q10" s="14"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -2612,18 +3181,18 @@
       <c r="P11" s="14"/>
       <c r="Q11" s="14"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
       <c r="D12" s="19"/>
       <c r="E12" s="20" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
@@ -2637,19 +3206,15 @@
       <c r="P12" s="14"/>
       <c r="Q12" s="14"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="14">
-        <v>1000</v>
-      </c>
-      <c r="F13" s="11">
-        <v>1000</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="11"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -2662,19 +3227,17 @@
       <c r="P13" s="14"/>
       <c r="Q13" s="14"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
       <c r="D14" s="22" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>59</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="F14" s="24"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -2687,19 +3250,17 @@
       <c r="P14" s="14"/>
       <c r="Q14" s="14"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
       <c r="D15" s="12" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="E15" s="17">
-        <v>2000</v>
-      </c>
-      <c r="F15" s="13">
-        <v>0</v>
-      </c>
+        <v>1950</v>
+      </c>
+      <c r="F15" s="13"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -2712,7 +3273,7 @@
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -2731,7 +3292,7 @@
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -2750,7 +3311,7 @@
       <c r="P17" s="14"/>
       <c r="Q17" s="14"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -2769,7 +3330,7 @@
       <c r="P18" s="14"/>
       <c r="Q18" s="14"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -2788,26 +3349,26 @@
       <c r="P19" s="14"/>
       <c r="Q19" s="14"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="19"/>
       <c r="E20" s="20" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="19"/>
       <c r="I20" s="20" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="K20" s="16"/>
       <c r="L20" s="14"/>
@@ -2817,29 +3378,25 @@
       <c r="P20" s="14"/>
       <c r="Q20" s="14"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="10" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="E21" s="14">
-        <v>1500</v>
-      </c>
-      <c r="F21" s="11">
-        <v>0</v>
-      </c>
+        <v>3000</v>
+      </c>
+      <c r="F21" s="11"/>
       <c r="G21" s="14"/>
       <c r="H21" s="10" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I21" s="14">
-        <v>1200</v>
-      </c>
-      <c r="J21" s="11">
-        <v>700</v>
-      </c>
+        <v>2450</v>
+      </c>
+      <c r="J21" s="11"/>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
@@ -2848,29 +3405,25 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="14"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="22" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>60</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="F22" s="23"/>
       <c r="G22" s="14"/>
       <c r="H22" s="22" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="J22" s="24" t="s">
-        <v>59</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="J22" s="24"/>
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
@@ -2879,29 +3432,25 @@
       <c r="P22" s="14"/>
       <c r="Q22" s="14"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="12" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="E23" s="17">
         <v>2000</v>
       </c>
-      <c r="F23" s="13">
-        <v>0</v>
-      </c>
+      <c r="F23" s="13"/>
       <c r="G23" s="14"/>
       <c r="H23" s="12" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I23" s="17">
-        <v>2000</v>
-      </c>
-      <c r="J23" s="13">
-        <v>0</v>
-      </c>
+        <v>3550</v>
+      </c>
+      <c r="J23" s="13"/>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
@@ -2910,7 +3459,7 @@
       <c r="P23" s="14"/>
       <c r="Q23" s="14"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -2929,7 +3478,7 @@
       <c r="P24" s="14"/>
       <c r="Q24" s="14"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -2948,7 +3497,7 @@
       <c r="P25" s="14"/>
       <c r="Q25" s="14"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -2967,7 +3516,7 @@
       <c r="P26" s="14"/>
       <c r="Q26" s="14"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -2986,26 +3535,26 @@
       <c r="P27" s="14"/>
       <c r="Q27" s="14"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="19"/>
       <c r="E28" s="20" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="G28" s="18"/>
       <c r="H28" s="19"/>
       <c r="I28" s="20" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="J28" s="21" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
@@ -3015,29 +3564,25 @@
       <c r="P28" s="14"/>
       <c r="Q28" s="14"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="10" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="E29" s="14">
-        <v>3000</v>
-      </c>
-      <c r="F29" s="11">
-        <v>1000</v>
-      </c>
+        <v>3200</v>
+      </c>
+      <c r="F29" s="11"/>
       <c r="G29" s="14"/>
       <c r="H29" s="10" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I29" s="14">
-        <v>2500</v>
-      </c>
-      <c r="J29" s="11">
-        <v>500</v>
-      </c>
+        <v>3200</v>
+      </c>
+      <c r="J29" s="11"/>
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
@@ -3046,29 +3591,25 @@
       <c r="P29" s="14"/>
       <c r="Q29" s="14"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="22" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="F30" s="24" t="s">
-        <v>59</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="F30" s="24"/>
       <c r="G30" s="14"/>
       <c r="H30" s="22" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="J30" s="24" t="s">
-        <v>59</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="J30" s="24"/>
       <c r="K30" s="14"/>
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
@@ -3077,29 +3618,25 @@
       <c r="P30" s="14"/>
       <c r="Q30" s="14"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="12" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="E31" s="17">
-        <v>4000</v>
-      </c>
-      <c r="F31" s="13">
-        <v>0</v>
-      </c>
+        <v>4950</v>
+      </c>
+      <c r="F31" s="13"/>
       <c r="G31" s="14"/>
       <c r="H31" s="12" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I31" s="17">
-        <v>3500</v>
-      </c>
-      <c r="J31" s="13">
-        <v>0</v>
-      </c>
+        <v>4650</v>
+      </c>
+      <c r="J31" s="13"/>
       <c r="K31" s="14"/>
       <c r="L31" s="14"/>
       <c r="M31" s="14"/>
@@ -3108,7 +3645,7 @@
       <c r="P31" s="14"/>
       <c r="Q31" s="14"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -3127,7 +3664,7 @@
       <c r="P32" s="14"/>
       <c r="Q32" s="14"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -3146,7 +3683,7 @@
       <c r="P33" s="14"/>
       <c r="Q33" s="14"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -3165,7 +3702,7 @@
       <c r="P34" s="14"/>
       <c r="Q34" s="14"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -3184,119 +3721,113 @@
       <c r="P35" s="14"/>
       <c r="Q35" s="14"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="19"/>
       <c r="E36" s="20" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="19"/>
       <c r="I36" s="20" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="J36" s="21" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="K36" s="14"/>
       <c r="L36" s="19"/>
       <c r="M36" s="20" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="N36" s="21" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="O36" s="14"/>
       <c r="P36" s="14"/>
       <c r="Q36" s="14"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
       <c r="D37" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E37" s="14">
-        <v>5000</v>
-      </c>
-      <c r="F37" s="11">
-        <v>3000</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E37" s="31">
+        <v>5950</v>
+      </c>
+      <c r="F37" s="11"/>
       <c r="G37" s="14"/>
       <c r="H37" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I37" s="14">
-        <v>5000</v>
-      </c>
-      <c r="J37" s="11">
-        <v>3000</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I37" s="31">
+        <v>4800</v>
+      </c>
+      <c r="J37" s="11"/>
       <c r="K37" s="14"/>
       <c r="L37" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="M37" s="14">
-        <v>4000</v>
-      </c>
-      <c r="N37" s="11">
-        <v>500</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="M37" s="31">
+        <v>4500</v>
+      </c>
+      <c r="N37" s="11"/>
       <c r="O37" s="14"/>
       <c r="P37" s="14"/>
       <c r="Q37" s="14"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
       <c r="D38" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>50</v>
+        <v>15</v>
+      </c>
+      <c r="E38" s="29" t="s">
+        <v>52</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="G38" s="14"/>
       <c r="H38" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="I38" s="18" t="s">
-        <v>51</v>
+        <v>15</v>
+      </c>
+      <c r="I38" s="29" t="s">
+        <v>50</v>
       </c>
       <c r="J38" s="24" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="K38" s="14"/>
       <c r="L38" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="M38" s="18" t="s">
-        <v>55</v>
+        <v>15</v>
+      </c>
+      <c r="M38" s="29" t="s">
+        <v>54</v>
       </c>
       <c r="N38" s="24" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="O38" s="14"/>
       <c r="P38" s="14"/>
       <c r="Q38" s="14"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
       <c r="D39" s="12" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="E39" s="17">
         <v>0</v>
@@ -3306,7 +3837,7 @@
       </c>
       <c r="G39" s="14"/>
       <c r="H39" s="12" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I39" s="17">
         <v>0</v>
@@ -3316,7 +3847,7 @@
       </c>
       <c r="K39" s="14"/>
       <c r="L39" s="12" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="M39" s="17">
         <v>0</v>
@@ -3328,7 +3859,7 @@
       <c r="P39" s="14"/>
       <c r="Q39" s="14"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -3347,9 +3878,937 @@
       <c r="P40" s="14"/>
       <c r="Q40" s="14"/>
     </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C44" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F44" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="31">
+        <v>5950</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C45" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F45" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" s="31">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C46" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F46" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" s="31">
+        <v>4500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FED1B1A-B46C-4314-91FC-70D8CF9D6CA4}">
+  <dimension ref="A1:Q46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="14" width="13.33203125" style="9" customWidth="1"/>
+    <col min="15" max="18" width="14.5" style="9" customWidth="1"/>
+    <col min="19" max="16384" width="9.1640625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="14">
+        <v>1000</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1000</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="17">
+        <v>2000</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="14"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="16"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="14">
+        <v>1500</v>
+      </c>
+      <c r="F21" s="11">
+        <v>0</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="14">
+        <v>1200</v>
+      </c>
+      <c r="J21" s="11">
+        <v>700</v>
+      </c>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="14"/>
+      <c r="H22" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="17">
+        <v>2000</v>
+      </c>
+      <c r="F23" s="13">
+        <v>0</v>
+      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="17">
+        <v>2000</v>
+      </c>
+      <c r="J23" s="13">
+        <v>0</v>
+      </c>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="18"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="14">
+        <v>3000</v>
+      </c>
+      <c r="F29" s="11">
+        <v>1000</v>
+      </c>
+      <c r="G29" s="14"/>
+      <c r="H29" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="14">
+        <v>2500</v>
+      </c>
+      <c r="J29" s="11">
+        <v>500</v>
+      </c>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="14"/>
+      <c r="H30" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="17">
+        <v>4000</v>
+      </c>
+      <c r="F31" s="13">
+        <v>0</v>
+      </c>
+      <c r="G31" s="14"/>
+      <c r="H31" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="17">
+        <v>3500</v>
+      </c>
+      <c r="J31" s="13">
+        <v>0</v>
+      </c>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="14"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J36" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K36" s="14"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="N36" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="14">
+        <v>5000</v>
+      </c>
+      <c r="F37" s="11">
+        <v>3000</v>
+      </c>
+      <c r="G37" s="14"/>
+      <c r="H37" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" s="14">
+        <v>5000</v>
+      </c>
+      <c r="J37" s="11">
+        <v>3000</v>
+      </c>
+      <c r="K37" s="14"/>
+      <c r="L37" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M37" s="14">
+        <v>4000</v>
+      </c>
+      <c r="N37" s="11">
+        <v>500</v>
+      </c>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" s="14"/>
+      <c r="H38" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J38" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K38" s="14"/>
+      <c r="L38" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="M38" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N38" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="17">
+        <v>0</v>
+      </c>
+      <c r="F39" s="13">
+        <v>0</v>
+      </c>
+      <c r="G39" s="14"/>
+      <c r="H39" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" s="17">
+        <v>0</v>
+      </c>
+      <c r="J39" s="13">
+        <v>0</v>
+      </c>
+      <c r="K39" s="14"/>
+      <c r="L39" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="M39" s="17">
+        <v>0</v>
+      </c>
+      <c r="N39" s="13">
+        <v>0</v>
+      </c>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C44" s="29"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="31"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C45" s="29"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="31"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C46" s="29"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="31"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511A3878-8CD5-6D47-B401-65A509C0F8AD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>